--- a/water_quality_prediction/output/result_sample1.xlsx
+++ b/water_quality_prediction/output/result_sample1.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,125 +453,304 @@
       <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>26</v>
+        <v>42</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3" t="n">
+        <v>44</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
         <v>25</v>
       </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
+        <v>45</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
         <v>26</v>
       </c>
-      <c r="E3" t="n">
-        <v>7</v>
-      </c>
-      <c r="F3" t="n">
-        <v>27</v>
+      <c r="I3" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>25</v>
+      </c>
+      <c r="C4" t="n">
+        <v>45</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
         <v>26</v>
       </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
+        <v>46</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
         <v>27</v>
       </c>
-      <c r="E4" t="n">
-        <v>8</v>
-      </c>
-      <c r="F4" t="n">
-        <v>28</v>
+      <c r="I4" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F5" t="n">
-        <v>31</v>
+        <v>47</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>28</v>
+      </c>
+      <c r="I5" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D6" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F6" t="n">
-        <v>32</v>
+        <v>48</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>28</v>
+      </c>
+      <c r="I6" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>28</v>
+      </c>
+      <c r="C7" t="n">
+        <v>48</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>48</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>29</v>
+      </c>
+      <c r="I7" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>28</v>
+      </c>
+      <c r="C8" t="n">
+        <v>48</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>29</v>
+      </c>
+      <c r="F8" t="n">
+        <v>49</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>30</v>
+      </c>
+      <c r="I8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>29</v>
+      </c>
+      <c r="C9" t="n">
+        <v>49</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>30</v>
+      </c>
+      <c r="F9" t="n">
+        <v>50</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>31</v>
+      </c>
+      <c r="I9" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>30</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F10" t="n">
+        <v>51</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" t="n">
+        <v>32</v>
+      </c>
+      <c r="I10" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>31</v>
+      </c>
+      <c r="C11" t="n">
+        <v>51</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>32</v>
+      </c>
+      <c r="F11" t="n">
+        <v>52</v>
+      </c>
+      <c r="G11" t="n">
         <v>11</v>
       </c>
-      <c r="B7" t="n">
-        <v>31</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D7" t="n">
-        <v>32</v>
-      </c>
-      <c r="E7" t="n">
-        <v>13</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="H11" t="n">
         <v>33</v>
+      </c>
+      <c r="I11" t="n">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/water_quality_prediction/output/result_sample1.xlsx
+++ b/water_quality_prediction/output/result_sample1.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,295 +462,980 @@
       <c r="I1" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>2.8</v>
       </c>
       <c r="C2" t="n">
-        <v>41</v>
+        <v>6.8</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>12.6</v>
       </c>
       <c r="F2" t="n">
-        <v>42</v>
+        <v>0.5</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H2" t="n">
-        <v>23</v>
+        <v>1.771</v>
       </c>
       <c r="I2" t="n">
-        <v>43</v>
+        <v>0.004</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>97</v>
+      </c>
+      <c r="P2" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>24</v>
-      </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
+        <v>41</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.805</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
-        <v>25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>45</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>26</v>
-      </c>
-      <c r="I3" t="n">
-        <v>46</v>
+      <c r="N3" t="n">
+        <v>22</v>
+      </c>
+      <c r="O3" t="n">
+        <v>42</v>
+      </c>
+      <c r="P3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>25</v>
-      </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
+        <v>42</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>3</v>
       </c>
-      <c r="E4" t="n">
-        <v>26</v>
-      </c>
-      <c r="F4" t="n">
-        <v>46</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>27</v>
-      </c>
-      <c r="I4" t="n">
-        <v>47</v>
+      <c r="N4" t="n">
+        <v>23</v>
+      </c>
+      <c r="O4" t="n">
+        <v>43</v>
+      </c>
+      <c r="P4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-1.2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="E5" t="n">
-        <v>27</v>
+        <v>12.6</v>
       </c>
       <c r="F5" t="n">
-        <v>47</v>
+        <v>0.4</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="H5" t="n">
-        <v>28</v>
+        <v>1.792</v>
       </c>
       <c r="I5" t="n">
-        <v>48</v>
+        <v>0.001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>25</v>
+      </c>
+      <c r="O5" t="n">
+        <v>45</v>
+      </c>
+      <c r="P5" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.794</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E6" t="n">
-        <v>28</v>
+        <v>12.7</v>
       </c>
       <c r="F6" t="n">
-        <v>48</v>
+        <v>0.5</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>28</v>
+        <v>1.794</v>
       </c>
       <c r="I6" t="n">
-        <v>48</v>
+        <v>0.003</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O6" t="n">
+        <v>46</v>
+      </c>
+      <c r="P6" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.823</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
       </c>
       <c r="B7" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E7" t="n">
-        <v>28</v>
+        <v>12.7</v>
       </c>
       <c r="F7" t="n">
-        <v>48</v>
+        <v>0.4</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="H7" t="n">
-        <v>29</v>
+        <v>1.823</v>
       </c>
       <c r="I7" t="n">
-        <v>49</v>
+        <v>0.003</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="n">
+        <v>27</v>
+      </c>
+      <c r="O7" t="n">
+        <v>47</v>
+      </c>
+      <c r="P7" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.829</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
       </c>
       <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>27</v>
+      </c>
+      <c r="D8" t="n">
+        <v>47</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.829</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="n">
         <v>28</v>
       </c>
-      <c r="C8" t="n">
+      <c r="O8" t="n">
         <v>48</v>
       </c>
-      <c r="D8" t="n">
-        <v>7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>29</v>
-      </c>
-      <c r="F8" t="n">
-        <v>49</v>
-      </c>
-      <c r="G8" t="n">
-        <v>8</v>
-      </c>
-      <c r="H8" t="n">
-        <v>30</v>
-      </c>
-      <c r="I8" t="n">
-        <v>50</v>
+      <c r="P8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-2.6</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
       </c>
       <c r="B9" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>12.5</v>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>0.4</v>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>1.4</v>
       </c>
       <c r="H9" t="n">
-        <v>31</v>
+        <v>1.793</v>
       </c>
       <c r="I9" t="n">
-        <v>51</v>
+        <v>0.004</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N9" t="n">
+        <v>28</v>
+      </c>
+      <c r="O9" t="n">
+        <v>48</v>
+      </c>
+      <c r="P9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-2.6</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E10" t="n">
-        <v>31</v>
+        <v>12.5</v>
       </c>
       <c r="F10" t="n">
-        <v>51</v>
+        <v>0.4</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>1.4</v>
       </c>
       <c r="H10" t="n">
-        <v>32</v>
+        <v>1.793</v>
       </c>
       <c r="I10" t="n">
-        <v>52</v>
+        <v>0.004</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>7</v>
+      </c>
+      <c r="N10" t="n">
+        <v>29</v>
+      </c>
+      <c r="O10" t="n">
+        <v>49</v>
+      </c>
+      <c r="P10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>29</v>
+      </c>
+      <c r="D11" t="n">
+        <v>49</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>8</v>
+      </c>
+      <c r="N11" t="n">
+        <v>30</v>
+      </c>
+      <c r="O11" t="n">
+        <v>50</v>
+      </c>
+      <c r="P11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.782</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="U11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" t="n">
+        <v>50</v>
+      </c>
+      <c r="E12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.782</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="N12" t="n">
         <v>31</v>
       </c>
-      <c r="C11" t="n">
+      <c r="O12" t="n">
         <v>51</v>
       </c>
-      <c r="D11" t="n">
+      <c r="P12" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>31</v>
+      </c>
+      <c r="D13" t="n">
+        <v>51</v>
+      </c>
+      <c r="E13" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>10</v>
       </c>
-      <c r="E11" t="n">
+      <c r="N13" t="n">
         <v>32</v>
       </c>
-      <c r="F11" t="n">
+      <c r="O13" t="n">
         <v>52</v>
       </c>
-      <c r="G11" t="n">
+      <c r="P13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>32</v>
+      </c>
+      <c r="D14" t="n">
+        <v>52</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>11</v>
       </c>
-      <c r="H11" t="n">
+      <c r="N14" t="n">
         <v>33</v>
       </c>
-      <c r="I11" t="n">
+      <c r="O14" t="n">
         <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="U14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
